--- a/biology/Zoologie/Cetiosauridae/Cetiosauridae.xlsx
+++ b/biology/Zoologie/Cetiosauridae/Cetiosauridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cetiosauridae sont une ancienne famille de dinosaures sauropodes ayant vécu au Jurassique moyen et supérieur.
-Le genre type Cetiosaurus a été créé par Sir Richard Owen en 1841[2]. En 1888, Richard Lydekker crée la famille des Cetiosauridae pour y placer le seul genre Cetiosaurus[1]. Cette famille est abandonnée depuis le début du XXIe siècle car paraphylétique[3],[4],[5].
+Le genre type Cetiosaurus a été créé par Sir Richard Owen en 1841. En 1888, Richard Lydekker crée la famille des Cetiosauridae pour y placer le seul genre Cetiosaurus. Cette famille est abandonnée depuis le début du XXIe siècle car paraphylétique.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Référence taxonomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Référence Paleobiology Database : Cetiosauridae Lydekker, 1888</t>
         </is>
